--- a/BA.xlsx
+++ b/BA.xlsx
@@ -402,9 +402,6 @@
     <t>- Database: PostgreSQL.</t>
   </si>
   <si>
-    <t>- Authentication Service: A standalone service using NestJS and JWT for issuing and revoking tokens.</t>
-  </si>
-  <si>
     <t>- Communication:</t>
   </si>
   <si>
@@ -475,6 +472,10 @@
   </si>
   <si>
     <t>- Deploy the application using Docker or a cloud provider like AWS, ensuring proper load balancing and scaling.</t>
+  </si>
+  <si>
+    <t>- Authentication Service: A standalone service using NestJS and JWT for issuing and revoking tokens.
+- Tokens are managed by Redis.</t>
   </si>
 </sst>
 </file>
@@ -571,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -585,6 +586,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -1325,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,7 +1543,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
         <v>123</v>
@@ -1551,150 +1555,150 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="5" t="s">
-        <v>125</v>
+      <c r="B36" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
